--- a/Integrated-Ranks.xlsx
+++ b/Integrated-Ranks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>WUPCM1-TCM</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>TOCM-MT</t>
+  </si>
+  <si>
+    <t>MRCPM-TCM</t>
+  </si>
+  <si>
+    <t>MRCPM-TOCM</t>
+  </si>
+  <si>
+    <t>Integrated Ranks</t>
   </si>
 </sst>
 </file>
@@ -500,13 +509,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO31"/>
+  <dimension ref="A1:BO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="35" max="35" width="18.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
@@ -603,10 +615,16 @@
       <c r="AF1" s="2">
         <v>30</v>
       </c>
-      <c r="AG1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AG1" s="4">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="BN1" t="s">
@@ -651,70 +669,76 @@
         <v>8</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>7</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2">
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>8</v>
+      </c>
+      <c r="U2">
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <v>12</v>
+      </c>
+      <c r="W2">
+        <v>7</v>
+      </c>
+      <c r="X2">
+        <v>9</v>
+      </c>
+      <c r="Y2">
         <v>10</v>
       </c>
-      <c r="S2">
-        <v>8</v>
-      </c>
-      <c r="T2">
-        <v>10</v>
-      </c>
-      <c r="U2">
-        <v>4</v>
-      </c>
-      <c r="V2">
+      <c r="Z2">
+        <v>7</v>
+      </c>
+      <c r="AA2">
         <v>14</v>
       </c>
-      <c r="W2">
-        <v>12</v>
-      </c>
-      <c r="X2">
-        <v>8</v>
-      </c>
-      <c r="Y2">
-        <v>14</v>
-      </c>
-      <c r="Z2">
-        <v>4</v>
-      </c>
-      <c r="AA2">
-        <v>9</v>
-      </c>
       <c r="AB2">
+        <v>4</v>
+      </c>
+      <c r="AC2">
+        <v>9</v>
+      </c>
+      <c r="AD2">
         <v>15</v>
       </c>
-      <c r="AC2">
-        <v>6</v>
-      </c>
-      <c r="AD2">
-        <v>4</v>
-      </c>
       <c r="AE2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG2">
-        <v>3.3624999999999998</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>2</v>
+      </c>
+      <c r="AI2">
+        <v>6.2640624999999996</v>
+      </c>
+      <c r="AJ2">
+        <v>5</v>
       </c>
       <c r="BN2">
         <v>3.3624999999999998</v>
@@ -743,85 +767,91 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>9</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>8</v>
+      </c>
+      <c r="V3">
+        <v>14</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>9</v>
+      </c>
+      <c r="Y3">
         <v>12</v>
       </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
-      <c r="M3">
-        <v>6</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>7</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3">
-        <v>6</v>
-      </c>
-      <c r="R3">
+      <c r="Z3">
+        <v>11</v>
+      </c>
+      <c r="AA3">
         <v>10</v>
       </c>
-      <c r="S3">
-        <v>11</v>
-      </c>
-      <c r="T3">
-        <v>9</v>
-      </c>
-      <c r="U3">
+      <c r="AB3">
         <v>10</v>
       </c>
-      <c r="V3">
-        <v>12</v>
-      </c>
-      <c r="W3">
-        <v>15</v>
-      </c>
-      <c r="X3">
-        <v>12</v>
-      </c>
-      <c r="Y3">
-        <v>10</v>
-      </c>
-      <c r="Z3">
-        <v>10</v>
-      </c>
-      <c r="AA3">
-        <v>8</v>
-      </c>
-      <c r="AB3">
-        <v>4</v>
-      </c>
       <c r="AC3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD3">
+        <v>4</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+      <c r="AF3">
         <v>1</v>
       </c>
-      <c r="AE3">
-        <v>3</v>
-      </c>
-      <c r="AF3">
-        <v>2</v>
-      </c>
       <c r="AG3">
-        <v>3.2843749999999998</v>
+        <v>3</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>6.28125</v>
+      </c>
+      <c r="AJ3">
+        <v>6</v>
       </c>
       <c r="BN3">
         <v>3.2843749999999998</v>
@@ -850,67 +880,67 @@
         <v>6</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>9</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N4">
         <v>5</v>
       </c>
       <c r="O4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
       <c r="R4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
         <v>1</v>
       </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
-      <c r="Y4">
-        <v>2</v>
-      </c>
       <c r="Z4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>1</v>
@@ -919,16 +949,22 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>5.9171874999999998</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>3.5281250000000002</v>
+      </c>
+      <c r="AJ4">
+        <v>2</v>
       </c>
       <c r="BN4">
         <v>5.9171874999999998</v>
@@ -954,37 +990,37 @@
         <v>7</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
         <v>11</v>
       </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>12</v>
-      </c>
       <c r="L5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5">
         <v>7</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R5">
         <v>5</v>
@@ -993,49 +1029,55 @@
         <v>7</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>4</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
         <v>1</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>5.9296875</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>3.4421875000000002</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
       </c>
       <c r="BN5">
         <v>5.9296875</v>
@@ -1061,28 +1103,28 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L6">
         <v>6</v>
       </c>
       <c r="M6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O6">
         <v>35</v>
@@ -1091,57 +1133,63 @@
         <v>20</v>
       </c>
       <c r="Q6">
+        <v>23</v>
+      </c>
+      <c r="R6">
+        <v>20</v>
+      </c>
+      <c r="S6">
+        <v>63</v>
+      </c>
+      <c r="T6">
         <v>25</v>
       </c>
-      <c r="R6">
-        <v>26</v>
-      </c>
-      <c r="S6">
-        <v>65</v>
-      </c>
-      <c r="T6">
+      <c r="U6">
+        <v>28</v>
+      </c>
+      <c r="V6">
         <v>29</v>
       </c>
-      <c r="U6">
+      <c r="W6">
+        <v>32</v>
+      </c>
+      <c r="X6">
+        <v>55</v>
+      </c>
+      <c r="Y6">
+        <v>68</v>
+      </c>
+      <c r="Z6">
+        <v>74</v>
+      </c>
+      <c r="AA6">
+        <v>16</v>
+      </c>
+      <c r="AB6">
+        <v>14</v>
+      </c>
+      <c r="AC6">
         <v>27</v>
       </c>
-      <c r="V6">
-        <v>31</v>
-      </c>
-      <c r="W6">
-        <v>48</v>
-      </c>
-      <c r="X6">
-        <v>48</v>
-      </c>
-      <c r="Y6">
-        <v>63</v>
-      </c>
-      <c r="Z6">
-        <v>78</v>
-      </c>
-      <c r="AA6">
-        <v>27</v>
-      </c>
-      <c r="AB6">
-        <v>11</v>
-      </c>
-      <c r="AC6">
-        <v>8</v>
-      </c>
       <c r="AD6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AG6">
-        <v>18.712499999999999</v>
+        <v>7</v>
       </c>
       <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>19.318750000000001</v>
+      </c>
+      <c r="AJ6">
         <v>21</v>
       </c>
       <c r="BN6">
@@ -1162,93 +1210,99 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>12</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S7">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T7">
         <v>38</v>
       </c>
       <c r="U7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="W7">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="X7">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y7">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="Z7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AB7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AC7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AD7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG7">
-        <v>18.0546875</v>
+        <v>9</v>
       </c>
       <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>18.598437499999999</v>
+      </c>
+      <c r="AJ7">
         <v>20</v>
       </c>
       <c r="BN7">
@@ -1275,87 +1329,93 @@
         <v>12</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K8">
         <v>12</v>
       </c>
       <c r="L8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O8">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="R8">
         <v>9</v>
       </c>
       <c r="S8">
+        <v>17</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>14</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>14</v>
+      </c>
+      <c r="X8">
+        <v>13</v>
+      </c>
+      <c r="Y8">
+        <v>20</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <v>15</v>
+      </c>
+      <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AC8">
+        <v>20</v>
+      </c>
+      <c r="AD8">
+        <v>5</v>
+      </c>
+      <c r="AE8">
         <v>18</v>
       </c>
-      <c r="T8">
-        <v>6</v>
-      </c>
-      <c r="U8">
-        <v>17</v>
-      </c>
-      <c r="V8">
-        <v>15</v>
-      </c>
-      <c r="W8">
-        <v>23</v>
-      </c>
-      <c r="X8">
-        <v>4</v>
-      </c>
-      <c r="Y8">
-        <v>18</v>
-      </c>
-      <c r="Z8">
-        <v>3</v>
-      </c>
-      <c r="AA8">
-        <v>20</v>
-      </c>
-      <c r="AB8">
-        <v>6</v>
-      </c>
-      <c r="AC8">
-        <v>18</v>
-      </c>
-      <c r="AD8">
-        <v>2</v>
-      </c>
-      <c r="AE8">
+      <c r="AF8">
+        <v>2</v>
+      </c>
+      <c r="AG8">
         <v>1</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>13.34375</v>
-      </c>
       <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>13.792187500000001</v>
+      </c>
+      <c r="AJ8">
         <v>15</v>
       </c>
       <c r="BN8">
@@ -1382,87 +1442,93 @@
         <v>14</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>12</v>
       </c>
       <c r="J9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K9">
         <v>10</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O9">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R9">
         <v>6</v>
       </c>
       <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>11</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <v>18</v>
+      </c>
+      <c r="X9">
+        <v>6</v>
+      </c>
+      <c r="Y9">
+        <v>8</v>
+      </c>
+      <c r="Z9">
+        <v>3</v>
+      </c>
+      <c r="AA9">
+        <v>21</v>
+      </c>
+      <c r="AB9">
+        <v>5</v>
+      </c>
+      <c r="AC9">
         <v>10</v>
       </c>
-      <c r="T9">
-        <v>6</v>
-      </c>
-      <c r="U9">
-        <v>14</v>
-      </c>
-      <c r="V9">
-        <v>8</v>
-      </c>
-      <c r="W9">
-        <v>13</v>
-      </c>
-      <c r="X9">
-        <v>4</v>
-      </c>
-      <c r="Y9">
-        <v>22</v>
-      </c>
-      <c r="Z9">
-        <v>5</v>
-      </c>
-      <c r="AA9">
-        <v>9</v>
-      </c>
-      <c r="AB9">
-        <v>3</v>
-      </c>
-      <c r="AC9">
-        <v>3</v>
-      </c>
       <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>3</v>
+      </c>
+      <c r="AF9">
         <v>1</v>
       </c>
-      <c r="AE9">
-        <v>3</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
       <c r="AG9">
-        <v>11.0375</v>
+        <v>3</v>
       </c>
       <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>11.370312500000001</v>
+      </c>
+      <c r="AJ9">
         <v>13</v>
       </c>
       <c r="BN9">
@@ -1489,87 +1555,93 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M10">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>23</v>
       </c>
       <c r="O10">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R10">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S10">
+        <v>13</v>
+      </c>
+      <c r="T10">
+        <v>15</v>
+      </c>
+      <c r="U10">
+        <v>15</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <v>13</v>
+      </c>
+      <c r="X10">
+        <v>12</v>
+      </c>
+      <c r="Y10">
+        <v>14</v>
+      </c>
+      <c r="Z10">
+        <v>11</v>
+      </c>
+      <c r="AA10">
+        <v>15</v>
+      </c>
+      <c r="AB10">
+        <v>8</v>
+      </c>
+      <c r="AC10">
+        <v>22</v>
+      </c>
+      <c r="AD10">
+        <v>4</v>
+      </c>
+      <c r="AE10">
         <v>16</v>
       </c>
-      <c r="T10">
-        <v>13</v>
-      </c>
-      <c r="U10">
-        <v>24</v>
-      </c>
-      <c r="V10">
-        <v>12</v>
-      </c>
-      <c r="W10">
-        <v>16</v>
-      </c>
-      <c r="X10">
-        <v>11</v>
-      </c>
-      <c r="Y10">
-        <v>18</v>
-      </c>
-      <c r="Z10">
-        <v>7</v>
-      </c>
-      <c r="AA10">
-        <v>23</v>
-      </c>
-      <c r="AB10">
-        <v>4</v>
-      </c>
-      <c r="AC10">
-        <v>16</v>
-      </c>
-      <c r="AD10">
-        <v>3</v>
-      </c>
-      <c r="AE10">
+      <c r="AF10">
+        <v>3</v>
+      </c>
+      <c r="AG10">
         <v>1</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>14.0234375</v>
-      </c>
       <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>14.487500000000001</v>
+      </c>
+      <c r="AJ10">
         <v>16</v>
       </c>
       <c r="BN10">
@@ -1587,43 +1659,43 @@
         <v>89</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>12</v>
       </c>
       <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
         <v>12</v>
       </c>
-      <c r="G11">
-        <v>17</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <v>12</v>
-      </c>
-      <c r="J11">
-        <v>8</v>
-      </c>
-      <c r="K11">
-        <v>11</v>
-      </c>
       <c r="L11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O11">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>18</v>
@@ -1632,51 +1704,57 @@
         <v>10</v>
       </c>
       <c r="S11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="V11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="W11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Y11">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="Z11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA11">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AB11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AC11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>11.5234375</v>
+        <v>3</v>
       </c>
       <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>11.8578125</v>
+      </c>
+      <c r="AJ11">
         <v>14</v>
       </c>
       <c r="BN11">
@@ -1703,87 +1781,93 @@
         <v>7</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
         <v>13</v>
       </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <v>8</v>
-      </c>
-      <c r="K12">
-        <v>9</v>
-      </c>
-      <c r="L12">
-        <v>9</v>
-      </c>
-      <c r="M12">
-        <v>8</v>
-      </c>
-      <c r="N12">
-        <v>4</v>
-      </c>
-      <c r="O12">
-        <v>14</v>
-      </c>
       <c r="P12">
+        <v>13</v>
+      </c>
+      <c r="Q12">
+        <v>25</v>
+      </c>
+      <c r="R12">
+        <v>8</v>
+      </c>
+      <c r="S12">
+        <v>76</v>
+      </c>
+      <c r="T12">
+        <v>33</v>
+      </c>
+      <c r="U12">
+        <v>56</v>
+      </c>
+      <c r="V12">
+        <v>24</v>
+      </c>
+      <c r="W12">
+        <v>56</v>
+      </c>
+      <c r="X12">
+        <v>15</v>
+      </c>
+      <c r="Y12">
+        <v>39</v>
+      </c>
+      <c r="Z12">
+        <v>24</v>
+      </c>
+      <c r="AA12">
+        <v>55</v>
+      </c>
+      <c r="AB12">
+        <v>33</v>
+      </c>
+      <c r="AC12">
+        <v>32</v>
+      </c>
+      <c r="AD12">
+        <v>18</v>
+      </c>
+      <c r="AE12">
+        <v>23</v>
+      </c>
+      <c r="AF12">
+        <v>5</v>
+      </c>
+      <c r="AG12">
         <v>12</v>
       </c>
-      <c r="Q12">
-        <v>28</v>
-      </c>
-      <c r="R12">
-        <v>12</v>
-      </c>
-      <c r="S12">
-        <v>77</v>
-      </c>
-      <c r="T12">
-        <v>35</v>
-      </c>
-      <c r="U12">
-        <v>61</v>
-      </c>
-      <c r="V12">
-        <v>22</v>
-      </c>
-      <c r="W12">
-        <v>66</v>
-      </c>
-      <c r="X12">
-        <v>26</v>
-      </c>
-      <c r="Y12">
-        <v>68</v>
-      </c>
-      <c r="Z12">
-        <v>40</v>
-      </c>
-      <c r="AA12">
-        <v>35</v>
-      </c>
-      <c r="AB12">
-        <v>16</v>
-      </c>
-      <c r="AC12">
-        <v>25</v>
-      </c>
-      <c r="AD12">
-        <v>7</v>
-      </c>
-      <c r="AE12">
-        <v>12</v>
-      </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>1</v>
       </c>
-      <c r="AG12">
-        <v>18.928125000000001</v>
-      </c>
-      <c r="AH12">
+      <c r="AI12">
+        <v>19.760937500000001</v>
+      </c>
+      <c r="AJ12">
         <v>22</v>
       </c>
       <c r="BN12">
@@ -1810,87 +1894,93 @@
         <v>8</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K13">
         <v>5</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q13">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R13">
         <v>19</v>
       </c>
       <c r="S13">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T13">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U13">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="V13">
+        <v>23</v>
+      </c>
+      <c r="W13">
+        <v>22</v>
+      </c>
+      <c r="X13">
+        <v>12</v>
+      </c>
+      <c r="Y13">
+        <v>36</v>
+      </c>
+      <c r="Z13">
+        <v>14</v>
+      </c>
+      <c r="AA13">
+        <v>55</v>
+      </c>
+      <c r="AB13">
+        <v>17</v>
+      </c>
+      <c r="AC13">
+        <v>29</v>
+      </c>
+      <c r="AD13">
+        <v>7</v>
+      </c>
+      <c r="AE13">
         <v>18</v>
       </c>
-      <c r="W13">
-        <v>45</v>
-      </c>
-      <c r="X13">
-        <v>19</v>
-      </c>
-      <c r="Y13">
-        <v>58</v>
-      </c>
-      <c r="Z13">
-        <v>17</v>
-      </c>
-      <c r="AA13">
-        <v>32</v>
-      </c>
-      <c r="AB13">
-        <v>8</v>
-      </c>
-      <c r="AC13">
-        <v>18</v>
-      </c>
-      <c r="AD13">
-        <v>5</v>
-      </c>
-      <c r="AE13">
+      <c r="AF13">
+        <v>5</v>
+      </c>
+      <c r="AG13">
         <v>10</v>
       </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>17.453125</v>
-      </c>
       <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>18.181249999999999</v>
+      </c>
+      <c r="AJ13">
         <v>19</v>
       </c>
       <c r="BN13">
@@ -1920,84 +2010,90 @@
         <v>5</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <v>10</v>
+      </c>
+      <c r="X14">
+        <v>5</v>
+      </c>
+      <c r="Y14">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <v>4</v>
+      </c>
+      <c r="AA14">
         <v>1</v>
       </c>
-      <c r="O14">
-        <v>5</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
-      <c r="Q14">
-        <v>12</v>
-      </c>
-      <c r="R14">
-        <v>3</v>
-      </c>
-      <c r="S14">
-        <v>7</v>
-      </c>
-      <c r="T14">
-        <v>5</v>
-      </c>
-      <c r="U14">
-        <v>9</v>
-      </c>
-      <c r="V14">
-        <v>6</v>
-      </c>
-      <c r="W14">
-        <v>4</v>
-      </c>
-      <c r="X14">
-        <v>4</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="Z14">
-        <v>3</v>
-      </c>
-      <c r="AA14">
-        <v>8</v>
-      </c>
       <c r="AB14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AD14">
         <v>4</v>
       </c>
       <c r="AE14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG14">
-        <v>4.0687499999999996</v>
+        <v>4</v>
       </c>
       <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>4.3140625000000004</v>
+      </c>
+      <c r="AJ14">
         <v>4</v>
       </c>
       <c r="BN14">
@@ -2027,84 +2123,90 @@
         <v>6</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>3</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15">
         <v>6</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
         <v>10</v>
       </c>
-      <c r="V15">
-        <v>3</v>
-      </c>
-      <c r="W15">
-        <v>3</v>
-      </c>
       <c r="X15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y15">
         <v>2</v>
       </c>
       <c r="Z15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG15">
-        <v>4.0390625</v>
+        <v>2</v>
       </c>
       <c r="AH15">
+        <v>5</v>
+      </c>
+      <c r="AI15">
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="AJ15">
         <v>3</v>
       </c>
       <c r="BN15">
@@ -2125,10 +2227,10 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -2140,78 +2242,84 @@
         <v>12</v>
       </c>
       <c r="J16">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M16">
+        <v>34</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>17</v>
+      </c>
+      <c r="P16">
+        <v>18</v>
+      </c>
+      <c r="Q16">
+        <v>47</v>
+      </c>
+      <c r="R16">
+        <v>23</v>
+      </c>
+      <c r="S16">
+        <v>23</v>
+      </c>
+      <c r="T16">
+        <v>14</v>
+      </c>
+      <c r="U16">
+        <v>42</v>
+      </c>
+      <c r="V16">
         <v>35</v>
       </c>
-      <c r="N16">
-        <v>12</v>
-      </c>
-      <c r="O16">
-        <v>16</v>
-      </c>
-      <c r="P16">
-        <v>19</v>
-      </c>
-      <c r="Q16">
-        <v>50</v>
-      </c>
-      <c r="R16">
-        <v>28</v>
-      </c>
-      <c r="S16">
-        <v>25</v>
-      </c>
-      <c r="T16">
-        <v>9</v>
-      </c>
-      <c r="U16">
-        <v>36</v>
-      </c>
-      <c r="V16">
-        <v>38</v>
-      </c>
       <c r="W16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y16">
         <v>3</v>
       </c>
       <c r="Z16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB16">
+        <v>4</v>
+      </c>
+      <c r="AC16">
+        <v>4</v>
+      </c>
+      <c r="AD16">
         <v>1</v>
       </c>
-      <c r="AC16">
-        <v>2</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
       <c r="AE16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF16">
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>8.6671875000000007</v>
+        <v>0</v>
       </c>
       <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>8.8671875</v>
+      </c>
+      <c r="AJ16">
         <v>11</v>
       </c>
       <c r="BN16">
@@ -2235,7 +2343,7 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>14</v>
@@ -2244,55 +2352,55 @@
         <v>7</v>
       </c>
       <c r="I17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N17">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S17">
+        <v>18</v>
+      </c>
+      <c r="T17">
         <v>20</v>
       </c>
-      <c r="T17">
-        <v>25</v>
-      </c>
       <c r="U17">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V17">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X17">
         <v>2</v>
       </c>
       <c r="Y17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z17">
         <v>2</v>
@@ -2304,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD17">
         <v>2</v>
@@ -2313,12 +2421,18 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG17">
-        <v>9.1140624999999993</v>
+        <v>0</v>
       </c>
       <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>9.2890625</v>
+      </c>
+      <c r="AJ17">
         <v>12</v>
       </c>
       <c r="BN17">
@@ -2329,104 +2443,110 @@
       </c>
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
+      <c r="A18" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O18">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P18">
         <v>16</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S18">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="T18">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U18">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="V18">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="W18">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="X18">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y18">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="Z18">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA18">
+        <v>99</v>
+      </c>
+      <c r="AB18">
         <v>19</v>
       </c>
-      <c r="AB18">
-        <v>6</v>
-      </c>
       <c r="AC18">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="AD18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE18">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG18">
-        <v>16.517187499999999</v>
+        <v>8</v>
       </c>
       <c r="AH18">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>20.796875</v>
+      </c>
+      <c r="AJ18">
+        <v>25</v>
       </c>
       <c r="BN18">
         <v>16.517187499999999</v>
@@ -2436,104 +2556,110 @@
       </c>
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="O19">
         <v>17</v>
       </c>
-      <c r="C19">
-        <v>32</v>
-      </c>
-      <c r="D19">
-        <v>13</v>
-      </c>
-      <c r="E19">
+      <c r="P19">
+        <v>12</v>
+      </c>
+      <c r="Q19">
+        <v>24</v>
+      </c>
+      <c r="R19">
         <v>15</v>
       </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>19</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-      <c r="I19">
-        <v>12</v>
-      </c>
-      <c r="J19">
-        <v>10</v>
-      </c>
-      <c r="K19">
-        <v>6</v>
-      </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="M19">
-        <v>10</v>
-      </c>
-      <c r="N19">
-        <v>6</v>
-      </c>
-      <c r="O19">
+      <c r="S19">
+        <v>47</v>
+      </c>
+      <c r="T19">
+        <v>17</v>
+      </c>
+      <c r="U19">
+        <v>54</v>
+      </c>
+      <c r="V19">
         <v>27</v>
       </c>
-      <c r="P19">
-        <v>11</v>
-      </c>
-      <c r="Q19">
-        <v>94</v>
-      </c>
-      <c r="R19">
-        <v>21</v>
-      </c>
-      <c r="S19">
-        <v>94</v>
-      </c>
-      <c r="T19">
-        <v>52</v>
-      </c>
-      <c r="U19">
-        <v>51</v>
-      </c>
-      <c r="V19">
-        <v>19</v>
-      </c>
       <c r="W19">
+        <v>47</v>
+      </c>
+      <c r="X19">
         <v>29</v>
       </c>
-      <c r="X19">
-        <v>17</v>
-      </c>
       <c r="Y19">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Z19">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="AA19">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="AB19">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AC19">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE19">
+        <v>24</v>
+      </c>
+      <c r="AF19">
+        <v>8</v>
+      </c>
+      <c r="AG19">
+        <v>8</v>
+      </c>
+      <c r="AH19">
         <v>1</v>
       </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>15.2109375</v>
-      </c>
-      <c r="AH19">
-        <v>17</v>
+      <c r="AI19">
+        <v>20.903124999999999</v>
+      </c>
+      <c r="AJ19">
+        <v>26</v>
       </c>
       <c r="BN19">
         <v>15.2109375</v>
@@ -2544,103 +2670,109 @@
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>25</v>
+      </c>
+      <c r="P20">
+        <v>16</v>
+      </c>
+      <c r="Q20">
+        <v>26</v>
+      </c>
+      <c r="R20">
+        <v>11</v>
+      </c>
+      <c r="S20">
+        <v>75</v>
+      </c>
+      <c r="T20">
+        <v>25</v>
+      </c>
+      <c r="U20">
+        <v>69</v>
+      </c>
+      <c r="V20">
+        <v>30</v>
+      </c>
+      <c r="W20">
+        <v>61</v>
+      </c>
+      <c r="X20">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="Y20">
+        <v>28</v>
+      </c>
+      <c r="Z20">
+        <v>17</v>
+      </c>
+      <c r="AA20">
+        <v>58</v>
+      </c>
+      <c r="AB20">
+        <v>13</v>
+      </c>
+      <c r="AC20">
+        <v>20</v>
+      </c>
+      <c r="AD20">
+        <v>6</v>
+      </c>
+      <c r="AE20">
+        <v>9</v>
+      </c>
+      <c r="AF20">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>2</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20">
-        <v>4</v>
-      </c>
-      <c r="T20">
-        <v>3</v>
-      </c>
-      <c r="U20">
-        <v>11</v>
-      </c>
-      <c r="V20">
-        <v>8</v>
-      </c>
-      <c r="W20">
-        <v>17</v>
-      </c>
-      <c r="X20">
-        <v>12</v>
-      </c>
-      <c r="Y20">
-        <v>39</v>
-      </c>
-      <c r="Z20">
-        <v>11</v>
-      </c>
-      <c r="AA20">
-        <v>48</v>
-      </c>
-      <c r="AB20">
-        <v>20</v>
-      </c>
-      <c r="AC20">
-        <v>137</v>
-      </c>
-      <c r="AD20">
-        <v>31</v>
-      </c>
-      <c r="AE20">
-        <v>59</v>
-      </c>
-      <c r="AF20">
-        <v>227</v>
-      </c>
       <c r="AG20">
-        <v>26.920312500000001</v>
+        <v>2</v>
       </c>
       <c r="AH20">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="AJ20">
+        <v>18</v>
       </c>
       <c r="BN20">
         <v>26.920312500000001</v>
@@ -2651,103 +2783,109 @@
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>13</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
+      <c r="M21">
+        <v>11</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="O21">
+        <v>28</v>
+      </c>
+      <c r="P21">
+        <v>12</v>
+      </c>
+      <c r="Q21">
+        <v>91</v>
+      </c>
+      <c r="R21">
+        <v>20</v>
+      </c>
+      <c r="S21">
+        <v>91</v>
+      </c>
+      <c r="T21">
+        <v>51</v>
+      </c>
+      <c r="U21">
+        <v>43</v>
+      </c>
+      <c r="V21">
+        <v>12</v>
+      </c>
+      <c r="W21">
+        <v>23</v>
+      </c>
+      <c r="X21">
+        <v>10</v>
+      </c>
+      <c r="Y21">
+        <v>24</v>
+      </c>
+      <c r="Z21">
+        <v>14</v>
+      </c>
+      <c r="AA21">
+        <v>49</v>
+      </c>
+      <c r="AB21">
+        <v>3</v>
+      </c>
+      <c r="AC21">
+        <v>12</v>
+      </c>
+      <c r="AD21">
+        <v>4</v>
+      </c>
+      <c r="AE21">
+        <v>8</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>2</v>
-      </c>
-      <c r="P21">
-        <v>3</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21">
-        <v>3</v>
-      </c>
-      <c r="T21">
-        <v>3</v>
-      </c>
-      <c r="U21">
-        <v>10</v>
-      </c>
-      <c r="V21">
-        <v>6</v>
-      </c>
-      <c r="W21">
-        <v>12</v>
-      </c>
-      <c r="X21">
-        <v>8</v>
-      </c>
-      <c r="Y21">
-        <v>33</v>
-      </c>
-      <c r="Z21">
-        <v>16</v>
-      </c>
-      <c r="AA21">
-        <v>28</v>
-      </c>
-      <c r="AB21">
-        <v>37</v>
-      </c>
-      <c r="AC21">
-        <v>104</v>
-      </c>
-      <c r="AD21">
-        <v>71</v>
-      </c>
-      <c r="AE21">
-        <v>221</v>
-      </c>
-      <c r="AF21">
-        <v>76</v>
-      </c>
-      <c r="AG21">
-        <v>27.001562499999999</v>
-      </c>
       <c r="AH21">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>15.739062499999999</v>
+      </c>
+      <c r="AJ21">
+        <v>17</v>
       </c>
       <c r="BN21">
         <v>27.001562499999999</v>
@@ -2758,103 +2896,109 @@
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>441</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="V22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W22">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="X22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Y22">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Z22">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA22">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="AB22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC22">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AD22">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AE22">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="AF22">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="AG22">
-        <v>6.3078124999999998</v>
+        <v>59</v>
       </c>
       <c r="AH22">
-        <v>10</v>
+        <v>227</v>
+      </c>
+      <c r="AI22">
+        <v>28.696874999999999</v>
+      </c>
+      <c r="AJ22">
+        <v>31</v>
       </c>
       <c r="BN22">
         <v>6.3078124999999998</v>
@@ -2865,64 +3009,64 @@
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23">
-        <v>441</v>
+        <v>1</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>9</v>
-      </c>
-      <c r="H23">
-        <v>4</v>
-      </c>
-      <c r="I23">
-        <v>9</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23">
-        <v>6</v>
-      </c>
-      <c r="L23">
-        <v>5</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
-      <c r="N23">
-        <v>4</v>
-      </c>
-      <c r="O23">
-        <v>8</v>
-      </c>
-      <c r="P23">
-        <v>5</v>
-      </c>
       <c r="Q23">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V23">
         <v>3</v>
@@ -2931,37 +3075,43 @@
         <v>10</v>
       </c>
       <c r="X23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y23">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Z23">
         <v>10</v>
       </c>
       <c r="AA23">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AB23">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AC23">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AD23">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AE23">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="AF23">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="AG23">
-        <v>6.2718749999999996</v>
+        <v>220</v>
       </c>
       <c r="AH23">
-        <v>8</v>
+        <v>76</v>
+      </c>
+      <c r="AI23">
+        <v>28.810937500000001</v>
+      </c>
+      <c r="AJ23">
+        <v>32</v>
       </c>
       <c r="BN23">
         <v>6.2718749999999996</v>
@@ -2972,103 +3122,109 @@
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>9</v>
+      </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
         <v>11</v>
       </c>
-      <c r="L24">
-        <v>5</v>
-      </c>
-      <c r="M24">
-        <v>5</v>
-      </c>
-      <c r="N24">
-        <v>4</v>
-      </c>
-      <c r="O24">
-        <v>5</v>
-      </c>
-      <c r="P24">
-        <v>6</v>
-      </c>
       <c r="Q24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S24">
         <v>3</v>
       </c>
       <c r="T24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U24">
+        <v>11</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>11</v>
+      </c>
+      <c r="X24">
+        <v>7</v>
+      </c>
+      <c r="Y24">
+        <v>6</v>
+      </c>
+      <c r="Z24">
+        <v>4</v>
+      </c>
+      <c r="AA24">
+        <v>11</v>
+      </c>
+      <c r="AB24">
+        <v>6</v>
+      </c>
+      <c r="AC24">
+        <v>15</v>
+      </c>
+      <c r="AD24">
+        <v>11</v>
+      </c>
+      <c r="AE24">
         <v>12</v>
       </c>
-      <c r="V24">
-        <v>6</v>
-      </c>
-      <c r="W24">
-        <v>14</v>
-      </c>
-      <c r="X24">
-        <v>6</v>
-      </c>
-      <c r="Y24">
-        <v>13</v>
-      </c>
-      <c r="Z24">
-        <v>12</v>
-      </c>
-      <c r="AA24">
-        <v>13</v>
-      </c>
-      <c r="AB24">
-        <v>7</v>
-      </c>
-      <c r="AC24">
-        <v>11</v>
-      </c>
-      <c r="AD24">
-        <v>9</v>
-      </c>
-      <c r="AE24">
-        <v>3</v>
-      </c>
       <c r="AF24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AG24">
-        <v>6.3015625000000002</v>
+        <v>6</v>
       </c>
       <c r="AH24">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="AI24">
+        <v>6.6687500000000002</v>
+      </c>
+      <c r="AJ24">
+        <v>10</v>
       </c>
       <c r="BN24">
         <v>6.3015625000000002</v>
@@ -3079,40 +3235,40 @@
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K25">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N25">
         <v>4</v>
@@ -3121,61 +3277,67 @@
         <v>5</v>
       </c>
       <c r="P25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T25">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y25">
         <v>11</v>
       </c>
       <c r="Z25">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AA25">
+        <v>10</v>
+      </c>
+      <c r="AB25">
         <v>11</v>
       </c>
-      <c r="AB25">
-        <v>8</v>
-      </c>
       <c r="AC25">
+        <v>8</v>
+      </c>
+      <c r="AD25">
+        <v>8</v>
+      </c>
+      <c r="AE25">
         <v>13</v>
       </c>
-      <c r="AD25">
-        <v>7</v>
-      </c>
-      <c r="AE25">
-        <v>7</v>
-      </c>
       <c r="AF25">
+        <v>9</v>
+      </c>
+      <c r="AG25">
+        <v>11</v>
+      </c>
+      <c r="AH25">
         <v>1</v>
       </c>
-      <c r="AG25">
-        <v>6.2593750000000004</v>
-      </c>
-      <c r="AH25">
-        <v>7</v>
+      <c r="AI25">
+        <v>6.6218750000000002</v>
+      </c>
+      <c r="AJ25">
+        <v>8</v>
       </c>
       <c r="BN25">
         <v>6.2593750000000004</v>
@@ -3186,103 +3348,109 @@
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O26">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="P26">
         <v>5</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="R26">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="S26">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="U26">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="V26">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="W26">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="X26">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="Y26">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="Z26">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="AA26">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="AB26">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="AC26">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AD26">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="AE26">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF26">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AG26">
-        <v>21.878125000000001</v>
+        <v>3</v>
       </c>
       <c r="AH26">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="AI26">
+        <v>6.6593749999999998</v>
+      </c>
+      <c r="AJ26">
+        <v>9</v>
       </c>
       <c r="BN26">
         <v>21.878125000000001</v>
@@ -3293,103 +3461,109 @@
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>11</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>9</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <v>4</v>
+      </c>
+      <c r="V27">
+        <v>11</v>
+      </c>
+      <c r="W27">
+        <v>8</v>
+      </c>
+      <c r="X27">
+        <v>9</v>
+      </c>
+      <c r="Y27">
+        <v>6</v>
+      </c>
+      <c r="Z27">
+        <v>8</v>
+      </c>
+      <c r="AA27">
+        <v>11</v>
+      </c>
+      <c r="AB27">
+        <v>10</v>
+      </c>
+      <c r="AC27">
+        <v>11</v>
+      </c>
+      <c r="AD27">
+        <v>8</v>
+      </c>
+      <c r="AE27">
+        <v>13</v>
+      </c>
+      <c r="AF27">
+        <v>7</v>
+      </c>
+      <c r="AG27">
+        <v>7</v>
+      </c>
+      <c r="AH27">
         <v>1</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>3</v>
-      </c>
-      <c r="O27">
-        <v>12</v>
-      </c>
-      <c r="P27">
-        <v>7</v>
-      </c>
-      <c r="Q27">
-        <v>19</v>
-      </c>
-      <c r="R27">
-        <v>11</v>
-      </c>
-      <c r="S27">
-        <v>81</v>
-      </c>
-      <c r="T27">
-        <v>22</v>
-      </c>
-      <c r="U27">
-        <v>79</v>
-      </c>
-      <c r="V27">
-        <v>29</v>
-      </c>
-      <c r="W27">
-        <v>86</v>
-      </c>
-      <c r="X27">
-        <v>54</v>
-      </c>
-      <c r="Y27">
-        <v>53</v>
-      </c>
-      <c r="Z27">
-        <v>27</v>
-      </c>
-      <c r="AA27">
-        <v>51</v>
-      </c>
-      <c r="AB27">
-        <v>48</v>
-      </c>
-      <c r="AC27">
-        <v>16</v>
-      </c>
-      <c r="AD27">
-        <v>24</v>
-      </c>
-      <c r="AE27">
-        <v>9</v>
-      </c>
-      <c r="AF27">
-        <v>5</v>
-      </c>
-      <c r="AG27">
-        <v>21.146875000000001</v>
-      </c>
-      <c r="AH27">
-        <v>25</v>
+      <c r="AI27">
+        <v>6.6124999999999998</v>
+      </c>
+      <c r="AJ27">
+        <v>7</v>
       </c>
       <c r="BN27">
         <v>21.146875000000001</v>
@@ -3400,103 +3574,109 @@
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O28">
+        <v>20</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+      <c r="Q28">
         <v>15</v>
       </c>
-      <c r="P28">
-        <v>24</v>
-      </c>
-      <c r="Q28">
-        <v>29</v>
-      </c>
       <c r="R28">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S28">
+        <v>33</v>
+      </c>
+      <c r="T28">
+        <v>20</v>
+      </c>
+      <c r="U28">
+        <v>32</v>
+      </c>
+      <c r="V28">
+        <v>61</v>
+      </c>
+      <c r="W28">
         <v>40</v>
       </c>
-      <c r="T28">
-        <v>26</v>
-      </c>
-      <c r="U28">
+      <c r="X28">
+        <v>65</v>
+      </c>
+      <c r="Y28">
+        <v>49</v>
+      </c>
+      <c r="Z28">
+        <v>62</v>
+      </c>
+      <c r="AA28">
+        <v>27</v>
+      </c>
+      <c r="AB28">
+        <v>28</v>
+      </c>
+      <c r="AC28">
         <v>42</v>
       </c>
-      <c r="V28">
-        <v>29</v>
-      </c>
-      <c r="W28">
-        <v>42</v>
-      </c>
-      <c r="X28">
-        <v>33</v>
-      </c>
-      <c r="Y28">
-        <v>38</v>
-      </c>
-      <c r="Z28">
-        <v>39</v>
-      </c>
-      <c r="AA28">
-        <v>93</v>
-      </c>
-      <c r="AB28">
-        <v>49</v>
-      </c>
-      <c r="AC28">
-        <v>19</v>
-      </c>
       <c r="AD28">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="AE28">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AF28">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AG28">
-        <v>19.931249999999999</v>
+        <v>8</v>
       </c>
       <c r="AH28">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="AI28">
+        <v>22.860937499999999</v>
+      </c>
+      <c r="AJ28">
+        <v>28</v>
       </c>
       <c r="BN28">
         <v>19.931249999999999</v>
@@ -3507,103 +3687,109 @@
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O29">
+        <v>11</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
+      </c>
+      <c r="Q29">
         <v>15</v>
       </c>
-      <c r="P29">
-        <v>15</v>
-      </c>
-      <c r="Q29">
-        <v>26</v>
-      </c>
       <c r="R29">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="S29">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="T29">
+        <v>16</v>
+      </c>
+      <c r="U29">
+        <v>55</v>
+      </c>
+      <c r="V29">
+        <v>24</v>
+      </c>
+      <c r="W29">
+        <v>91</v>
+      </c>
+      <c r="X29">
+        <v>46</v>
+      </c>
+      <c r="Y29">
+        <v>56</v>
+      </c>
+      <c r="Z29">
+        <v>33</v>
+      </c>
+      <c r="AA29">
+        <v>22</v>
+      </c>
+      <c r="AB29">
+        <v>24</v>
+      </c>
+      <c r="AC29">
+        <v>44</v>
+      </c>
+      <c r="AD29">
+        <v>48</v>
+      </c>
+      <c r="AE29">
+        <v>13</v>
+      </c>
+      <c r="AF29">
+        <v>25</v>
+      </c>
+      <c r="AG29">
+        <v>8</v>
+      </c>
+      <c r="AH29">
+        <v>5</v>
+      </c>
+      <c r="AI29">
+        <v>22.0703125</v>
+      </c>
+      <c r="AJ29">
         <v>27</v>
-      </c>
-      <c r="U29">
-        <v>46</v>
-      </c>
-      <c r="V29">
-        <v>36</v>
-      </c>
-      <c r="W29">
-        <v>33</v>
-      </c>
-      <c r="X29">
-        <v>37</v>
-      </c>
-      <c r="Y29">
-        <v>28</v>
-      </c>
-      <c r="Z29">
-        <v>52</v>
-      </c>
-      <c r="AA29">
-        <v>87</v>
-      </c>
-      <c r="AB29">
-        <v>53</v>
-      </c>
-      <c r="AC29">
-        <v>12</v>
-      </c>
-      <c r="AD29">
-        <v>16</v>
-      </c>
-      <c r="AE29">
-        <v>17</v>
-      </c>
-      <c r="AF29">
-        <v>8</v>
-      </c>
-      <c r="AG29">
-        <v>19.979687500000001</v>
-      </c>
-      <c r="AH29">
-        <v>24</v>
       </c>
       <c r="BN29">
         <v>19.979687500000001</v>
@@ -3614,103 +3800,109 @@
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P30">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="R30">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="S30">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="T30">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="U30">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="V30">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="W30">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="X30">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Y30">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Z30">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="AA30">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB30">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AC30">
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="AD30">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="AE30">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG30">
-        <v>26.059374999999999</v>
+        <v>7</v>
       </c>
       <c r="AH30">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="AI30">
+        <v>20.303125000000001</v>
+      </c>
+      <c r="AJ30">
+        <v>23</v>
       </c>
       <c r="BN30">
         <v>26.059374999999999</v>
@@ -3721,109 +3913,329 @@
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>9</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>14</v>
+      </c>
+      <c r="P31">
+        <v>12</v>
+      </c>
+      <c r="Q31">
+        <v>22</v>
+      </c>
+      <c r="R31">
+        <v>16</v>
+      </c>
+      <c r="S31">
+        <v>34</v>
+      </c>
+      <c r="T31">
+        <v>18</v>
+      </c>
+      <c r="U31">
+        <v>55</v>
+      </c>
+      <c r="V31">
         <v>27</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
+      <c r="W31">
+        <v>45</v>
+      </c>
+      <c r="X31">
+        <v>26</v>
+      </c>
+      <c r="Y31">
+        <v>40</v>
+      </c>
+      <c r="Z31">
+        <v>29</v>
+      </c>
+      <c r="AA31">
+        <v>101</v>
+      </c>
+      <c r="AB31">
+        <v>21</v>
+      </c>
+      <c r="AC31">
+        <v>57</v>
+      </c>
+      <c r="AD31">
+        <v>7</v>
+      </c>
+      <c r="AE31">
+        <v>25</v>
+      </c>
+      <c r="AF31">
+        <v>6</v>
+      </c>
+      <c r="AG31">
+        <v>7</v>
+      </c>
+      <c r="AH31">
         <v>1</v>
       </c>
-      <c r="P31">
-        <v>2</v>
-      </c>
-      <c r="Q31">
-        <v>3</v>
-      </c>
-      <c r="R31">
-        <v>4</v>
-      </c>
-      <c r="S31">
-        <v>4</v>
-      </c>
-      <c r="T31">
-        <v>5</v>
-      </c>
-      <c r="U31">
-        <v>16</v>
-      </c>
-      <c r="V31">
-        <v>10</v>
-      </c>
-      <c r="W31">
-        <v>19</v>
-      </c>
-      <c r="X31">
-        <v>13</v>
-      </c>
-      <c r="Y31">
-        <v>55</v>
-      </c>
-      <c r="Z31">
-        <v>13</v>
-      </c>
-      <c r="AA31">
-        <v>44</v>
-      </c>
-      <c r="AB31">
-        <v>28</v>
-      </c>
-      <c r="AC31">
-        <v>226</v>
-      </c>
-      <c r="AD31">
-        <v>37</v>
-      </c>
-      <c r="AE31">
-        <v>160</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>26.0625</v>
-      </c>
-      <c r="AH31">
-        <v>28</v>
+      <c r="AI31">
+        <v>20.423437499999999</v>
+      </c>
+      <c r="AJ31">
+        <v>24</v>
       </c>
       <c r="BN31">
         <v>26.0625</v>
       </c>
       <c r="BO31">
         <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>9</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>19</v>
+      </c>
+      <c r="X32">
+        <v>10</v>
+      </c>
+      <c r="Y32">
+        <v>17</v>
+      </c>
+      <c r="Z32">
+        <v>11</v>
+      </c>
+      <c r="AA32">
+        <v>68</v>
+      </c>
+      <c r="AB32">
+        <v>12</v>
+      </c>
+      <c r="AC32">
+        <v>43</v>
+      </c>
+      <c r="AD32">
+        <v>23</v>
+      </c>
+      <c r="AE32">
+        <v>215</v>
+      </c>
+      <c r="AF32">
+        <v>36</v>
+      </c>
+      <c r="AG32">
+        <v>159</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>27.831250000000001</v>
+      </c>
+      <c r="AJ32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>5</v>
+      </c>
+      <c r="U33">
+        <v>9</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>19</v>
+      </c>
+      <c r="X33">
+        <v>10</v>
+      </c>
+      <c r="Y33">
+        <v>17</v>
+      </c>
+      <c r="Z33">
+        <v>11</v>
+      </c>
+      <c r="AA33">
+        <v>68</v>
+      </c>
+      <c r="AB33">
+        <v>11</v>
+      </c>
+      <c r="AC33">
+        <v>43</v>
+      </c>
+      <c r="AD33">
+        <v>24</v>
+      </c>
+      <c r="AE33">
+        <v>215</v>
+      </c>
+      <c r="AF33">
+        <v>36</v>
+      </c>
+      <c r="AG33">
+        <v>159</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>27.834375000000001</v>
+      </c>
+      <c r="AJ33">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
